--- a/documents_assignment/text_files/sales.xlsx
+++ b/documents_assignment/text_files/sales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\raw_report_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\School\IT 414\IT414_zsuidan\documents_assignment\text_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFB861D-C1F7-4404-88AC-49CF62A9B3B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E36DB0-0580-45AF-B055-1BA4ED5BEC62}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="28800" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -389,19 +389,19 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -441,7 +441,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -461,7 +461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -481,7 +481,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
